--- a/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>226,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,31</t>
+          <t>-14,09; 7,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,64</t>
+          <t>-18,63; 16,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,44</t>
+          <t>-3,09; 24,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 7,04</t>
+          <t>0,0; 30,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 110,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 132,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 236,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-49,58%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>46,3%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,2</t>
+          <t>-4,57; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,77</t>
+          <t>-3,23; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,35</t>
+          <t>-2,73; 5,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,28</t>
+          <t>-1,22; 7,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 247,94</t>
+          <t>-43,27; 65,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,01; 41,82</t>
+          <t>-36,41; 110,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 188,27</t>
+          <t>-38,37; 132,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 295,33</t>
+          <t>-24,09; 236,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-27,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-15,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>226,43%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,63%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 7,66</t>
+          <t>-7,2; 2,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 16,38</t>
+          <t>-6,16; 3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 24,36</t>
+          <t>-3,14; 3,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,52</t>
+          <t>-6,45; 2,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,05; 57,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,36; 76,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,78; 190,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,18; 65,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-27,03%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,31%</t>
+          <t>-49,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>61,18%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,71</t>
+          <t>-0,61; 7,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,55</t>
+          <t>-6,0; 0,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,51</t>
+          <t>-2,13; 6,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,75</t>
+          <t>-1,71; 6,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-63,05; 57,9</t>
+          <t>-13,97; 247,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 76,04</t>
+          <t>-84,01; 41,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-61,78; 190,52</t>
+          <t>-29,92; 188,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,18; 65,98</t>
+          <t>-40,54; 295,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 7,66</t>
+          <t>-13,34; 7,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 16,38</t>
+          <t>-16,98; 15,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 24,36</t>
+          <t>-3,1; 24,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,57</t>
+          <t>-8,16; 2,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 0,59</t>
+          <t>-10,01; 0,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 5,34</t>
+          <t>-4,09; 5,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,89</t>
+          <t>-4,02; 4,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,96; 49,08</t>
+          <t>-70,7; 49,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,46; 17,0</t>
+          <t>-82,7; 24,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,5; 323,62</t>
+          <t>-67,14; 294,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,6; 224,28</t>
+          <t>-70,95; 237,01</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,31</t>
+          <t>-5,15; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,64</t>
+          <t>-2,94; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,44</t>
+          <t>-2,52; 5,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 7,04</t>
+          <t>-1,79; 6,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 65,59</t>
+          <t>-47,63; 65,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 110,08</t>
+          <t>-31,62; 113,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 132,74</t>
+          <t>-36,23; 138,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 236,76</t>
+          <t>-30,66; 210,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,71</t>
+          <t>-6,68; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,55</t>
+          <t>-6,02; 3,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,51</t>
+          <t>-3,25; 3,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,75</t>
+          <t>-5,76; 3,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,05; 57,9</t>
+          <t>-62,7; 52,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 76,04</t>
+          <t>-60,22; 83,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,78; 190,52</t>
+          <t>-65,37; 188,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,18; 65,98</t>
+          <t>-62,48; 103,11</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,2</t>
+          <t>-1,21; 6,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,77</t>
+          <t>-5,85; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,35</t>
+          <t>-2,02; 6,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,28</t>
+          <t>-2,11; 6,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 247,94</t>
+          <t>-24,65; 200,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-84,01; 41,82</t>
+          <t>-84,79; 30,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 188,27</t>
+          <t>-27,91; 194,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 295,33</t>
+          <t>-41,29; 261,26</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,17</t>
+          <t>-2,6; 2,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,86</t>
+          <t>-3,67; 0,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,61</t>
+          <t>-0,62; 3,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,25</t>
+          <t>-0,9; 3,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 36,18</t>
+          <t>-30,91; 32,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 15,49</t>
+          <t>-44,68; 11,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 94,65</t>
+          <t>-10,83; 89,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 79,2</t>
+          <t>-16,09; 84,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 7,61</t>
+          <t>-13,17; 7,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 15,82</t>
+          <t>-17,29; 15,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 24,8</t>
+          <t>-2,99; 27,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,52</t>
+          <t>0,0; 28,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 2,77</t>
+          <t>-8,02; 3,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 0,79</t>
+          <t>-9,99; 0,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,22</t>
+          <t>-4,12; 4,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 4,38</t>
+          <t>-4,42; 3,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,7; 49,09</t>
+          <t>-66,99; 73,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,7; 24,14</t>
+          <t>-81,64; 16,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 294,91</t>
+          <t>-68,74; 286,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,95; 237,01</t>
+          <t>-71,48; 224,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,08</t>
+          <t>-4,82; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 5,67</t>
+          <t>-2,75; 6,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,51</t>
+          <t>-2,68; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,6</t>
+          <t>-1,49; 6,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 65,61</t>
+          <t>-45,48; 69,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 113,79</t>
+          <t>-30,43; 128,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 138,99</t>
+          <t>-37,04; 146,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 210,31</t>
+          <t>-28,39; 220,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 2,58</t>
+          <t>-7,34; 2,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 3,71</t>
+          <t>-6,67; 3,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,54</t>
+          <t>-3,19; 3,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 3,98</t>
+          <t>-6,17; 3,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 52,81</t>
+          <t>-67,05; 51,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,22; 83,18</t>
+          <t>-62,5; 83,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,37; 188,83</t>
+          <t>-65,21; 233,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,48; 103,11</t>
+          <t>-68,47; 84,81</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 6,76</t>
+          <t>-0,98; 7,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 0,63</t>
+          <t>-5,59; 1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 6,67</t>
+          <t>-2,66; 6,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,52</t>
+          <t>-1,9; 6,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 200,96</t>
+          <t>-17,98; 240,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-84,79; 30,17</t>
+          <t>-83,51; 54,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 194,74</t>
+          <t>-40,42; 162,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 261,26</t>
+          <t>-38,22; 308,61</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,03</t>
+          <t>-2,49; 2,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,61</t>
+          <t>-3,34; 0,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,39</t>
+          <t>-0,61; 3,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,37</t>
+          <t>-1,13; 3,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 32,58</t>
+          <t>-29,08; 36,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 11,03</t>
+          <t>-42,89; 13,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 89,12</t>
+          <t>-10,26; 85,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 84,28</t>
+          <t>-17,69; 87,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-26,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-44,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>226,43%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>37,87%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 7,64</t>
+          <t>-6,71; 2,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 15,94</t>
+          <t>-9,14; 1,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 27,52</t>
+          <t>-2,69; 6,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,38</t>
+          <t>-2,54; 5,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,66; 59,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,33; 27,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,27; 324,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,39; 330,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,39%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,69%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>50,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 3,32</t>
+          <t>-4,57; 4,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,5</t>
+          <t>-3,23; 5,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,92</t>
+          <t>-2,73; 5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 3,84</t>
+          <t>-1,08; 7,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,99; 73,25</t>
+          <t>-43,27; 65,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 16,23</t>
+          <t>-36,41; 110,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,74; 286,95</t>
+          <t>-38,37; 132,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 224,28</t>
+          <t>-20,72; 253,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-27,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>-15,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>-33,78%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,13</t>
+          <t>-7,2; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,1</t>
+          <t>-6,16; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,38</t>
+          <t>-3,14; 3,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,82</t>
+          <t>-8,03; 1,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 69,04</t>
+          <t>-63,05; 57,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 128,4</t>
+          <t>-59,36; 76,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 146,33</t>
+          <t>-61,78; 190,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 220,39</t>
+          <t>-74,65; 41,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,03%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,31%</t>
+          <t>-49,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>56,49%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 2,62</t>
+          <t>-0,61; 7,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,68</t>
+          <t>-6,0; 0,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,8</t>
+          <t>-2,13; 6,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 3,62</t>
+          <t>-1,83; 6,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,05; 51,35</t>
+          <t>-13,97; 247,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 83,6</t>
+          <t>-84,01; 41,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 233,47</t>
+          <t>-29,92; 188,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,47; 84,81</t>
+          <t>-42,81; 285,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-49,58%</t>
+          <t>-20,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>17,97%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 7,1</t>
+          <t>-2,56; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 1,28</t>
+          <t>-3,73; 0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,04</t>
+          <t>-0,67; 3,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 6,58</t>
+          <t>-1,59; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 240,84</t>
+          <t>-30,84; 36,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-83,51; 54,78</t>
+          <t>-45,24; 15,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 162,19</t>
+          <t>-12,57; 94,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 308,61</t>
+          <t>-25,29; 71,79</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-2,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-20,15%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>29,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 2,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 0,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 3,32</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 3,22</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-29,08; 36,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-42,89; 13,78</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 85,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-17,69; 87,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
